--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scdap\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9E64F2F-100F-4AD3-9EF7-450FD121CDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1643794A-279C-49E5-AE92-A083581D26A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2AB1F9A-1EFA-4D70-8FCC-3CDD1CA89791}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Players</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Água</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
 </sst>
 </file>
@@ -440,67 +446,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6810F42B-AE1D-46F8-8941-62472C034EE7}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>800</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="E4">
+        <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
